--- a/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200304.xlsx
+++ b/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/北大数据/hainan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\hainan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3223A21-A3C7-D048-AF2C-845F6349A6B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7185D-8521-494C-9FFD-C4FA36A55CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="1440" windowWidth="19524" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -385,6 +385,12 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -10909,47 +10915,47 @@
   <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5" style="13" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="13" customWidth="1"/>
+    <col min="9" max="16" width="12.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.453125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="26.6328125" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.81640625" style="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1796875" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="13"/>
+    <col min="40" max="40" width="5.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="16.2">
       <c r="A1" s="15" t="s">
         <v>3251</v>
       </c>
@@ -12570,7 +12576,7 @@
     <hyperlink ref="V3:V22" r:id="rId2" display="http://wst.hainan.gov.cn/swjw/rdzt/yqfk/202003/t20200305_2756520.html" xr:uid="{581E6C43-F118-5746-9AE3-13D11CA191F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -12595,10 +12601,10 @@
       <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200304.xlsx
+++ b/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\hainan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F7185D-8521-494C-9FFD-C4FA36A55CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044D9C2-B70E-4964-8ED5-414F0C8CA32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1728" yWindow="1440" windowWidth="19524" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10914,8 +10914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="84" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -11225,7 +11225,7 @@
         <v>3290</v>
       </c>
       <c r="C4" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D4" s="23">
         <v>43895</v>
@@ -11287,7 +11287,7 @@
         <v>3290</v>
       </c>
       <c r="C5" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D5" s="23">
         <v>43895</v>
@@ -11355,7 +11355,7 @@
         <v>3290</v>
       </c>
       <c r="C6" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D6" s="23">
         <v>43895</v>
@@ -11417,7 +11417,7 @@
         <v>3290</v>
       </c>
       <c r="C7" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D7" s="23">
         <v>43895</v>
@@ -11485,7 +11485,7 @@
         <v>3290</v>
       </c>
       <c r="C8" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D8" s="23">
         <v>43895</v>
@@ -11551,7 +11551,7 @@
         <v>3290</v>
       </c>
       <c r="C9" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D9" s="23">
         <v>43895</v>
@@ -11619,7 +11619,7 @@
         <v>3290</v>
       </c>
       <c r="C10" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D10" s="23">
         <v>43895</v>
@@ -11685,7 +11685,7 @@
         <v>3290</v>
       </c>
       <c r="C11" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D11" s="23">
         <v>43895</v>
@@ -11753,7 +11753,7 @@
         <v>3290</v>
       </c>
       <c r="C12" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D12" s="23">
         <v>43895</v>
@@ -11815,7 +11815,7 @@
         <v>3290</v>
       </c>
       <c r="C13" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D13" s="23">
         <v>43895</v>
@@ -11883,7 +11883,7 @@
         <v>3290</v>
       </c>
       <c r="C14" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D14" s="23">
         <v>43895</v>
@@ -11949,7 +11949,7 @@
         <v>3290</v>
       </c>
       <c r="C15" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D15" s="23">
         <v>43895</v>
@@ -12011,7 +12011,7 @@
         <v>3290</v>
       </c>
       <c r="C16" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D16" s="23">
         <v>43895</v>
@@ -12077,7 +12077,7 @@
         <v>3290</v>
       </c>
       <c r="C17" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D17" s="23">
         <v>43895</v>
@@ -12143,7 +12143,7 @@
         <v>3290</v>
       </c>
       <c r="C18" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D18" s="23">
         <v>43895</v>
@@ -12209,7 +12209,7 @@
         <v>3290</v>
       </c>
       <c r="C19" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D19" s="23">
         <v>43895</v>
@@ -12275,7 +12275,7 @@
         <v>3290</v>
       </c>
       <c r="C20" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D20" s="23">
         <v>43895</v>
@@ -12341,7 +12341,7 @@
         <v>3290</v>
       </c>
       <c r="C21" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D21" s="23">
         <v>43895</v>
@@ -12403,7 +12403,7 @@
         <v>3292</v>
       </c>
       <c r="C22" s="23">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="D22" s="23">
         <v>43895</v>
